--- a/French/verbe.xlsx
+++ b/French/verbe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dataroot\yanhaowendata\active\Git\syncfile\French\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6855FADF-468A-4A8C-8F56-26C4351D6835}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B2F530-4DE8-4B38-990F-29B7EDF0D8BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>inf .</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,6 +432,10 @@
   </si>
   <si>
     <t>offert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ennuyer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1250,6 +1254,11 @@
         <v>95</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
